--- a/02_MasterWifoMannheim/99_Backup/Course136.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course136.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD32051265F59281159FEF0375101F983" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5A5D5D-77C0-4870-9A40-C4E1ABBC7C2F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 520 Market Research</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This module gives an overview of the market research process and deals with methods for data analysis and interpretation. The emphasis is on multivariate methods of data analysis. In presenting those analytical methods, a special focus is on discussing strengths and weaknesses of different methods and on possible fields of application in market research projects. software packages will be demonstrated.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Participants gain a sound knowledge of how market research projects are conducted and are able to critically evaluate market research projects. understanding of the data analysis methods used in market research and how these are applied by means of statistical software. The students are familiar with the strengths and weaknesses of the presented methods and know their fields of application within market research projects.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Kraus</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>CC 503, Mathematical and Statistical Foundations (MSF), Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 520 Market Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This module gives an overview of the market research process and deals with methods for data analysis and interpretation. The emphasis is on multivariate methods of data analysis. In presenting those analytical methods, a special focus is on discussing strengths and weaknesses of different methods and on possible fields of application in market research projects. software packages will be demonstrated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Participants gain a sound knowledge of how market research projects are conducted and are able to critically evaluate market research projects. understanding of the data analysis methods used in market research and how these are applied by means of statistical software. The students are familiar with the strengths and weaknesses of the presented methods and know their fields of application within market research projects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CC 503, Mathematical and Statistical Foundations (MSF), Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Kraus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
